--- a/-DOCS-/COMPONENTS_LIST/04.09.2024_BOM_Pre_Est.xlsx
+++ b/-DOCS-/COMPONENTS_LIST/04.09.2024_BOM_Pre_Est.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-MiniSumo\-DOCS-\COMPONENTS_LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE1A42E-3840-457A-A250-40699A6A670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7EDBC-7774-41B2-89A3-60DDC197F155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,7 +963,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1756,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2223,8 +2223,9 @@
     <hyperlink ref="C20" r:id="rId6" xr:uid="{DB2550D3-D476-46F9-AF1F-E89891AE4928}"/>
     <hyperlink ref="C21" r:id="rId7" xr:uid="{23CD6357-F04B-4149-A6E0-CBE32D792BA0}"/>
     <hyperlink ref="C22" r:id="rId8" xr:uid="{436BC89A-E7A1-4990-ABE6-AC3F83CF6F65}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{C7A87760-3A8C-4803-A430-4E3E8084D2AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>